--- a/biology/Botanique/Galerina/Galerina.xlsx
+++ b/biology/Botanique/Galerina/Galerina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerina est un genre de champignons basidiomycètes de la famille des Strophariaceae. 
 Ce sont de petits champignons campanulés, umbonés, ou coniques, saprophages et avec un sporophore brun pour la plupart. Le représentant de ce genre le plus connu est Galerina marginata, champignon extrêmement toxique, dont les toxines sont proches de celles de l'Amanite phalloïde.
@@ -512,9 +524,11 @@
           <t>Regroupement d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 2001, on considérait les espèces Galerina autumnalis, Galerina oregonensis,Galerina unicolor et Galerina venenata distinctes en raison de différences de leur habitat et de la viscosité de leur chapeau, mais les analyses phylogénétiques ont montré qu'il s'agit de la même espèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 2001, on considérait les espèces Galerina autumnalis, Galerina oregonensis,Galerina unicolor et Galerina venenata distinctes en raison de différences de leur habitat et de la viscosité de leur chapeau, mais les analyses phylogénétiques ont montré qu'il s'agit de la même espèce.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (29 octobre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (29 octobre 2013) :
 Galerina aberrans A.H. Sm. &amp; Singer 1955
 Galerina acicola A.H. Sm. &amp; Singer 1955
 Galerina acris Gulden 1980
